--- a/Estimación costos PUNTO FUNCION.xlsx
+++ b/Estimación costos PUNTO FUNCION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Israel 7mo\Software II\Grupo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\UIsrael_IngSoftwareII_Grupo11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -399,13 +399,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,40 +976,40 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3">
-        <f>SUM(C2:C10)</f>
+        <f t="shared" ref="C11:J11" si="0">SUM(C2:C10)</f>
         <v>9</v>
       </c>
       <c r="D11" s="3">
-        <f>SUM(D2:D10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E11" s="3">
-        <f>SUM(E2:E10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F11" s="3">
-        <f>SUM(F2:F10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G11" s="3">
-        <f>SUM(G2:G10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <f>SUM(H2:H10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I11" s="3">
-        <f>SUM(I2:I10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J11" s="3">
-        <f>SUM(J2:J10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1025,10 +1025,10 @@
       <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="6" t="s">
         <v>38</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" ref="G17:G20" si="0">D17*E17</f>
+        <f t="shared" ref="G17:G20" si="1">D17*E17</f>
         <v>35</v>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
         <v>46</v>
       </c>
       <c r="C28" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>50</v>
       </c>
       <c r="C33" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>51</v>
       </c>
       <c r="C34" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
         <v>52</v>
       </c>
       <c r="C35" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
         <v>54</v>
       </c>
       <c r="C37" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>55</v>
       </c>
       <c r="C38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C40" s="2">
         <f>SUM(C26:C39)</f>
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B46">
         <f>G21*(0.65+(0.01*C40))</f>
-        <v>122.98</v>
+        <v>157.30000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B56">
         <f>B46*C53</f>
-        <v>983.84</v>
+        <v>1258.4000000000001</v>
       </c>
       <c r="C56" t="s">
         <v>70</v>
@@ -1393,7 +1393,7 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64">
         <f>B56/B60</f>
-        <v>122.98</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="C64" t="s">
         <v>73</v>
@@ -1402,7 +1402,7 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65">
         <f>B64/B61</f>
-        <v>6.149</v>
+        <v>7.8650000000000002</v>
       </c>
       <c r="C65" t="s">
         <v>85</v>
@@ -1479,9 +1479,9 @@
       <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="14">
+      <c r="B78" s="12">
         <f>(B75*B65*B69)+B70</f>
-        <v>3304.5</v>
+        <v>4162.5</v>
       </c>
     </row>
   </sheetData>
